--- a/cleaned data/SCHI_FA22_Schedule.xlsx
+++ b/cleaned data/SCHI_FA22_Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
   <si>
     <t>Block</t>
   </si>
@@ -292,6 +292,9 @@
     <t>RIEGAL, A</t>
   </si>
   <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
@@ -394,6 +397,9 @@
     <t>20:50:00</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>MAIN</t>
   </si>
   <si>
@@ -404,9 +410,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>005C</t>
@@ -869,8 +872,20 @@
       <c r="F2" t="s">
         <v>78</v>
       </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
       <c r="J2">
         <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -893,25 +908,25 @@
         <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J3">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -934,25 +949,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J4">
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -974,8 +989,20 @@
       <c r="F5" t="s">
         <v>80</v>
       </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
       <c r="J5">
         <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -998,25 +1025,25 @@
         <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1038,8 +1065,20 @@
       <c r="F7" t="s">
         <v>81</v>
       </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
       <c r="J7">
         <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1061,8 +1100,20 @@
       <c r="F8" t="s">
         <v>82</v>
       </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
       <c r="J8">
         <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1084,8 +1135,20 @@
       <c r="F9" t="s">
         <v>83</v>
       </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
       <c r="J9">
         <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1107,8 +1170,20 @@
       <c r="F10" t="s">
         <v>81</v>
       </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
       <c r="J10">
         <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1131,25 +1206,25 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1172,25 +1247,25 @@
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J12">
         <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1212,8 +1287,20 @@
       <c r="F13" t="s">
         <v>84</v>
       </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
       <c r="J13">
         <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1235,8 +1322,20 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
       <c r="J14">
         <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1256,25 +1355,25 @@
         <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J15">
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1296,8 +1395,20 @@
       <c r="F16" t="s">
         <v>85</v>
       </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
       <c r="J16">
         <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1319,8 +1430,20 @@
       <c r="F17" t="s">
         <v>82</v>
       </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
       <c r="J17">
         <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1343,25 +1466,25 @@
         <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1383,8 +1506,20 @@
       <c r="F19" t="s">
         <v>86</v>
       </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
       <c r="J19">
         <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1404,28 +1539,28 @@
         <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20">
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1445,25 +1580,25 @@
         <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1483,28 +1618,28 @@
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1524,28 +1659,28 @@
         <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J23">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1565,25 +1700,25 @@
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J24">
         <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1603,25 +1738,25 @@
         <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J25">
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1641,25 +1776,25 @@
         <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26">
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1679,25 +1814,25 @@
         <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J27">
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1717,25 +1852,25 @@
         <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J28">
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1757,8 +1892,20 @@
       <c r="F29" t="s">
         <v>91</v>
       </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
       <c r="J29">
         <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1781,25 +1928,25 @@
         <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J30">
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
